--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>107.928617</v>
+        <v>62.85906733333334</v>
       </c>
       <c r="H2">
-        <v>323.785851</v>
+        <v>188.577202</v>
       </c>
       <c r="I2">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="J2">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>282.7679398712067</v>
+        <v>361.5129727452222</v>
       </c>
       <c r="R2">
-        <v>2544.91145884086</v>
+        <v>3253.616754707</v>
       </c>
       <c r="S2">
-        <v>0.1261960451629472</v>
+        <v>0.1078056350024874</v>
       </c>
       <c r="T2">
-        <v>0.1261960451629472</v>
+        <v>0.1078056350024874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>107.928617</v>
+        <v>62.85906733333334</v>
       </c>
       <c r="H3">
-        <v>323.785851</v>
+        <v>188.577202</v>
       </c>
       <c r="I3">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="J3">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
-        <v>61.50294251642167</v>
+        <v>35.82013475478777</v>
       </c>
       <c r="R3">
-        <v>553.526482647795</v>
+        <v>322.38121279309</v>
       </c>
       <c r="S3">
-        <v>0.02744804844209573</v>
+        <v>0.01068180857740906</v>
       </c>
       <c r="T3">
-        <v>0.02744804844209574</v>
+        <v>0.01068180857740906</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>107.928617</v>
+        <v>62.85906733333334</v>
       </c>
       <c r="H4">
-        <v>323.785851</v>
+        <v>188.577202</v>
       </c>
       <c r="I4">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="J4">
-        <v>0.2068777607879145</v>
+        <v>0.145580545806332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>119.280872721911</v>
+        <v>90.85339487627824</v>
       </c>
       <c r="R4">
-        <v>1073.527854497199</v>
+        <v>817.6805538865041</v>
       </c>
       <c r="S4">
-        <v>0.05323366718287151</v>
+        <v>0.02709310222643553</v>
       </c>
       <c r="T4">
-        <v>0.05323366718287153</v>
+        <v>0.02709310222643553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>429.900024</v>
       </c>
       <c r="I5">
-        <v>0.2746777045788535</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="J5">
-        <v>0.2746777045788536</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N5">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q5">
-        <v>375.4393336262934</v>
+        <v>824.1422293426667</v>
       </c>
       <c r="R5">
-        <v>3378.95400263664</v>
+        <v>7417.280064084001</v>
       </c>
       <c r="S5">
-        <v>0.1675542111451191</v>
+        <v>0.2457648357456516</v>
       </c>
       <c r="T5">
-        <v>0.1675542111451192</v>
+        <v>0.2457648357456516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>429.900024</v>
       </c>
       <c r="I6">
-        <v>0.2746777045788535</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="J6">
-        <v>0.2746777045788536</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q6">
         <v>81.65927072545334</v>
@@ -821,10 +821,10 @@
         <v>734.93343652908</v>
       </c>
       <c r="S6">
-        <v>0.0364435834597668</v>
+        <v>0.02435135167501086</v>
       </c>
       <c r="T6">
-        <v>0.03644358345976681</v>
+        <v>0.02435135167501087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>429.900024</v>
       </c>
       <c r="I7">
-        <v>0.2746777045788535</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="J7">
-        <v>0.2746777045788536</v>
+        <v>0.331880415407135</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N7">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q7">
-        <v>158.372732741464</v>
+        <v>207.1187620961387</v>
       </c>
       <c r="R7">
-        <v>1425.354594673176</v>
+        <v>1864.068858865248</v>
       </c>
       <c r="S7">
-        <v>0.07067990997396757</v>
+        <v>0.06176422798647255</v>
       </c>
       <c r="T7">
-        <v>0.07067990997396759</v>
+        <v>0.06176422798647255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>135.927831</v>
+        <v>144.7357836666667</v>
       </c>
       <c r="H8">
-        <v>407.783493</v>
+        <v>434.207351</v>
       </c>
       <c r="I8">
-        <v>0.2605467028826846</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="J8">
-        <v>0.2605467028826847</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N8">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q8">
-        <v>356.12457392122</v>
+        <v>832.3996144976111</v>
       </c>
       <c r="R8">
-        <v>3205.12116529098</v>
+        <v>7491.5965304785</v>
       </c>
       <c r="S8">
-        <v>0.1589342583698395</v>
+        <v>0.248227244337324</v>
       </c>
       <c r="T8">
-        <v>0.1589342583698396</v>
+        <v>0.2482272443373241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>135.927831</v>
+        <v>144.7357836666667</v>
       </c>
       <c r="H9">
-        <v>407.783493</v>
+        <v>434.207351</v>
       </c>
       <c r="I9">
-        <v>0.2605467028826846</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="J9">
-        <v>0.2605467028826847</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>1.709545</v>
       </c>
       <c r="O9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q9">
-        <v>77.458247948965</v>
+        <v>82.47744509614388</v>
       </c>
       <c r="R9">
-        <v>697.1242315406849</v>
+        <v>742.297005865295</v>
       </c>
       <c r="S9">
-        <v>0.034568715819985</v>
+        <v>0.02459533685458896</v>
       </c>
       <c r="T9">
-        <v>0.034568715819985</v>
+        <v>0.02459533685458896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>135.927831</v>
+        <v>144.7357836666667</v>
       </c>
       <c r="H10">
-        <v>407.783493</v>
+        <v>434.207351</v>
       </c>
       <c r="I10">
-        <v>0.2605467028826846</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="J10">
-        <v>0.2605467028826847</v>
+        <v>0.3352056477733801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N10">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q10">
-        <v>150.225128048073</v>
+        <v>209.1939614131391</v>
       </c>
       <c r="R10">
-        <v>1352.026152432657</v>
+        <v>1882.745652718252</v>
       </c>
       <c r="S10">
-        <v>0.06704372869286007</v>
+        <v>0.06238306658146711</v>
       </c>
       <c r="T10">
-        <v>0.06704372869286009</v>
+        <v>0.06238306658146712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>134.5459086666667</v>
+        <v>80.88719666666667</v>
       </c>
       <c r="H11">
-        <v>403.637726</v>
+        <v>242.66159</v>
       </c>
       <c r="I11">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="J11">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N11">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O11">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P11">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q11">
-        <v>352.5040018975956</v>
+        <v>465.1957492294444</v>
       </c>
       <c r="R11">
-        <v>3172.536017078361</v>
+        <v>4186.761743065</v>
       </c>
       <c r="S11">
-        <v>0.1573184391549133</v>
+        <v>0.1387245463566865</v>
       </c>
       <c r="T11">
-        <v>0.1573184391549133</v>
+        <v>0.1387245463566865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>134.5459086666667</v>
+        <v>80.88719666666667</v>
       </c>
       <c r="H12">
-        <v>403.637726</v>
+        <v>242.66159</v>
       </c>
       <c r="I12">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="J12">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>1.709545</v>
       </c>
       <c r="O12">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P12">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q12">
-        <v>76.6707618105189</v>
+        <v>46.09343420850556</v>
       </c>
       <c r="R12">
-        <v>690.03685629467</v>
+        <v>414.84090787655</v>
       </c>
       <c r="S12">
-        <v>0.03421726990876252</v>
+        <v>0.01374537656715111</v>
       </c>
       <c r="T12">
-        <v>0.03421726990876253</v>
+        <v>0.01374537656715111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>134.5459086666667</v>
+        <v>80.88719666666667</v>
       </c>
       <c r="H13">
-        <v>403.637726</v>
+        <v>242.66159</v>
       </c>
       <c r="I13">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="J13">
-        <v>0.2578978317505473</v>
+        <v>0.187333391013153</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N13">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O13">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P13">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q13">
-        <v>148.6978509779527</v>
+        <v>116.9103636269645</v>
       </c>
       <c r="R13">
-        <v>1338.280658801574</v>
+        <v>1052.19327264268</v>
       </c>
       <c r="S13">
-        <v>0.06636212268687146</v>
+        <v>0.03486346808931541</v>
       </c>
       <c r="T13">
-        <v>0.06636212268687147</v>
+        <v>0.03486346808931541</v>
       </c>
     </row>
   </sheetData>
